--- a/07. Project Office/Tracebale Matrix.xlsx
+++ b/07. Project Office/Tracebale Matrix.xlsx
@@ -213,7 +213,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,13 +247,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -739,28 +732,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,118 +765,115 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1852,7 +1845,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -1899,7 +1892,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -1946,7 +1939,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -1993,7 +1986,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2040,7 +2033,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2087,7 +2080,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2134,7 +2127,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2181,7 +2174,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2228,7 +2221,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2275,7 +2268,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2322,7 +2315,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2369,7 +2362,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2416,7 +2409,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2463,7 +2456,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2510,7 +2503,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2557,7 +2550,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2604,7 +2597,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2651,7 +2644,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2698,7 +2691,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2745,7 +2738,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2792,7 +2785,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2839,7 +2832,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2886,7 +2879,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2933,7 +2926,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -2980,7 +2973,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3027,7 +3020,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3074,7 +3067,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3121,7 +3114,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3168,7 +3161,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3215,7 +3208,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3262,7 +3255,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3309,7 +3302,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3356,7 +3349,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3403,7 +3396,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3450,7 +3443,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3492,7 +3485,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3534,7 +3527,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3576,7 +3569,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3618,7 +3611,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3660,7 +3653,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3702,7 +3695,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3744,7 +3737,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3786,7 +3779,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3828,7 +3821,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3870,7 +3863,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3912,7 +3905,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3954,7 +3947,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -3996,7 +3989,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4038,7 +4031,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4080,7 +4073,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4122,7 +4115,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4164,7 +4157,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4206,7 +4199,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4248,7 +4241,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4290,7 +4283,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4332,7 +4325,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4374,7 +4367,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4416,7 +4409,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4458,7 +4451,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4500,7 +4493,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4542,7 +4535,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4584,7 +4577,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4626,7 +4619,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4668,7 +4661,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4710,7 +4703,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4752,7 +4745,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4794,7 +4787,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4836,7 +4829,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4878,7 +4871,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4920,7 +4913,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -4962,7 +4955,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5004,7 +4997,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5046,7 +5039,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5088,7 +5081,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5130,7 +5123,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5172,7 +5165,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5214,7 +5207,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5256,7 +5249,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5298,7 +5291,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5340,7 +5333,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5382,7 +5375,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5424,7 +5417,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5466,7 +5459,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5508,7 +5501,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5550,7 +5543,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5592,7 +5585,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5634,7 +5627,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5676,7 +5669,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5718,7 +5711,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5760,7 +5753,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5802,7 +5795,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5844,7 +5837,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5886,7 +5879,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5928,7 +5921,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -5970,7 +5963,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6012,7 +6005,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6054,7 +6047,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6096,7 +6089,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6138,7 +6131,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6180,7 +6173,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6222,7 +6215,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6264,7 +6257,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6306,7 +6299,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6348,7 +6341,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6390,7 +6383,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6432,7 +6425,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6474,7 +6467,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6516,7 +6509,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6558,7 +6551,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6600,7 +6593,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6642,7 +6635,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6684,7 +6677,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6726,7 +6719,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6768,7 +6761,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6810,7 +6803,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6852,7 +6845,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6894,7 +6887,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6936,7 +6929,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -6978,7 +6971,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7020,7 +7013,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7062,7 +7055,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7104,7 +7097,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7146,7 +7139,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7188,7 +7181,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7230,7 +7223,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7272,7 +7265,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7314,7 +7307,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7356,7 +7349,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7398,7 +7391,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7440,7 +7433,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7482,7 +7475,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7524,7 +7517,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7566,7 +7559,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7608,7 +7601,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7650,7 +7643,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7692,7 +7685,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7734,7 +7727,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7776,7 +7769,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7818,7 +7811,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7860,7 +7853,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7902,7 +7895,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7944,7 +7937,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -7986,7 +7979,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8028,7 +8021,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8070,7 +8063,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8112,7 +8105,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8154,7 +8147,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8196,7 +8189,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8238,7 +8231,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8280,7 +8273,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8322,7 +8315,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8364,7 +8357,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8406,7 +8399,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8448,7 +8441,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8490,7 +8483,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8532,7 +8525,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8574,7 +8567,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8616,7 +8609,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8658,7 +8651,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8700,7 +8693,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8742,7 +8735,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8784,7 +8777,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8826,7 +8819,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8868,7 +8861,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8910,7 +8903,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8952,7 +8945,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -8994,7 +8987,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9036,7 +9029,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9078,7 +9071,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9120,7 +9113,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9162,7 +9155,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9204,7 +9197,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9246,7 +9239,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9288,7 +9281,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9330,7 +9323,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9372,7 +9365,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9414,7 +9407,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9456,7 +9449,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9498,7 +9491,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9540,7 +9533,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9582,7 +9575,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9624,7 +9617,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9666,7 +9659,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9708,7 +9701,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9750,7 +9743,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9792,7 +9785,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9834,7 +9827,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9876,7 +9869,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9918,7 +9911,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -9960,7 +9953,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10002,7 +9995,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10044,7 +10037,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10086,7 +10079,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10128,7 +10121,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10170,7 +10163,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10212,7 +10205,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10254,7 +10247,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10296,7 +10289,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10338,7 +10331,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10380,7 +10373,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10422,7 +10415,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10464,7 +10457,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10506,7 +10499,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10548,7 +10541,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10590,7 +10583,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10637,7 +10630,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10684,7 +10677,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10731,7 +10724,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10778,7 +10771,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
@@ -10825,7 +10818,7 @@
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr/>
+            <a:bodyPr upright="1"/>
             <a:p>
               <a:endParaRPr lang="en-US"/>
             </a:p>
